--- a/database/industries/chemical/shamla/product/quarterly.xlsx
+++ b/database/industries/chemical/shamla/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ABEA9D-ED81-4529-99DD-5FF13E65668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="29">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاملا-معدنی‌ املاح‌  ایران‌</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -49,6 +47,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>پودر سولفات سدیم</t>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +282,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -293,7 +294,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -340,6 +341,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,17 +561,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -546,7 +581,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +593,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -570,7 +605,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -580,7 +615,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -592,7 +627,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -604,7 +639,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -614,7 +649,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -636,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -646,7 +681,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -655,22 +690,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>46179</v>
+        <v>47450</v>
       </c>
       <c r="F10" s="9">
-        <v>47450</v>
+        <v>46826</v>
       </c>
       <c r="G10" s="9">
-        <v>46826</v>
+        <v>47546</v>
       </c>
       <c r="H10" s="9">
-        <v>47546</v>
+        <v>47419</v>
       </c>
       <c r="I10" s="9">
-        <v>47419</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46523</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -679,22 +714,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>24130</v>
+        <v>26674</v>
       </c>
       <c r="F11" s="11">
-        <v>26674</v>
+        <v>26512</v>
       </c>
       <c r="G11" s="11">
-        <v>26512</v>
+        <v>25279</v>
       </c>
       <c r="H11" s="11">
-        <v>25279</v>
+        <v>34125</v>
       </c>
       <c r="I11" s="11">
-        <v>34125</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30475</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -716,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -724,14 +759,14 @@
         <v>11</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>15</v>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -740,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -748,14 +783,14 @@
         <v>11</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -764,29 +799,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>70309</v>
+        <v>74124</v>
       </c>
       <c r="F15" s="13">
-        <v>74124</v>
+        <v>73338</v>
       </c>
       <c r="G15" s="13">
-        <v>73338</v>
+        <v>72825</v>
       </c>
       <c r="H15" s="13">
-        <v>72825</v>
+        <v>81544</v>
       </c>
       <c r="I15" s="13">
-        <v>81544</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -796,7 +831,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -806,7 +841,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -816,7 +851,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
@@ -838,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -848,7 +883,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
@@ -872,7 +907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
@@ -881,22 +916,22 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>45234</v>
-      </c>
-      <c r="F22" s="11">
         <v>45594</v>
       </c>
+      <c r="F22" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="11">
-        <v>45156</v>
+        <v>41838</v>
       </c>
       <c r="H22" s="11">
-        <v>41838</v>
+        <v>50639</v>
       </c>
       <c r="I22" s="11">
-        <v>50639</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46298</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
@@ -905,22 +940,22 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>22950</v>
-      </c>
-      <c r="F23" s="9">
         <v>26742</v>
       </c>
+      <c r="F23" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="9">
-        <v>24856</v>
+        <v>27208</v>
       </c>
       <c r="H23" s="9">
-        <v>27208</v>
+        <v>32685</v>
       </c>
       <c r="I23" s="9">
-        <v>32685</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30740</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
@@ -929,8 +964,8 @@
       <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
@@ -942,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
@@ -950,14 +985,14 @@
         <v>11</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>15</v>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
@@ -966,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
@@ -974,14 +1009,14 @@
         <v>11</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>15</v>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -990,29 +1025,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>68184</v>
+        <v>72336</v>
       </c>
       <c r="F27" s="15">
-        <v>72336</v>
+        <v>0</v>
       </c>
       <c r="G27" s="15">
-        <v>70012</v>
+        <v>69046</v>
       </c>
       <c r="H27" s="15">
-        <v>69046</v>
+        <v>83324</v>
       </c>
       <c r="I27" s="15">
-        <v>83324</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>77038</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1022,7 +1057,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1032,7 +1067,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1042,7 +1077,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1074,7 +1109,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>10</v>
       </c>
@@ -1107,22 +1142,22 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>1171049</v>
-      </c>
-      <c r="F34" s="11">
         <v>1278222</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G34" s="11">
-        <v>1297465</v>
+        <v>1210024</v>
       </c>
       <c r="H34" s="11">
-        <v>1210024</v>
+        <v>1655262</v>
       </c>
       <c r="I34" s="11">
-        <v>1655262</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1652277</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>12</v>
       </c>
@@ -1131,22 +1166,22 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>243841</v>
-      </c>
-      <c r="F35" s="9">
         <v>292291</v>
       </c>
+      <c r="F35" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G35" s="9">
-        <v>319000</v>
+        <v>346525</v>
       </c>
       <c r="H35" s="9">
-        <v>346525</v>
+        <v>426058</v>
       </c>
       <c r="I35" s="9">
-        <v>426058</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>443709</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>13</v>
       </c>
@@ -1157,8 +1192,8 @@
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11">
-        <v>0</v>
+      <c r="F36" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -1170,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -1178,14 +1213,14 @@
         <v>22</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>15</v>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
       </c>
       <c r="H37" s="9">
         <v>0</v>
@@ -1194,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
@@ -1202,14 +1237,14 @@
         <v>22</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>15</v>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
@@ -1218,29 +1253,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>1414890</v>
+        <v>1570513</v>
       </c>
       <c r="F39" s="15">
-        <v>1570513</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>1616465</v>
+        <v>1556549</v>
       </c>
       <c r="H39" s="15">
-        <v>1556549</v>
+        <v>2081320</v>
       </c>
       <c r="I39" s="15">
-        <v>2081320</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2095986</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1250,7 +1285,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1260,7 +1295,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1270,7 +1305,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>23</v>
       </c>
@@ -1292,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1302,7 +1337,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
@@ -1335,22 +1370,22 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>25888690</v>
+        <v>28034873</v>
       </c>
       <c r="F46" s="11">
-        <v>28034873</v>
+        <v>28732948</v>
       </c>
       <c r="G46" s="11">
-        <v>28732948</v>
+        <v>28921650</v>
       </c>
       <c r="H46" s="11">
-        <v>28921650</v>
+        <v>32687494</v>
       </c>
       <c r="I46" s="11">
-        <v>32687494</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35687870</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>12</v>
       </c>
@@ -1359,22 +1394,22 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>10624880</v>
+        <v>10930035</v>
       </c>
       <c r="F47" s="9">
-        <v>10930035</v>
+        <v>12833923</v>
       </c>
       <c r="G47" s="9">
-        <v>12833923</v>
+        <v>12736144</v>
       </c>
       <c r="H47" s="9">
-        <v>12736144</v>
+        <v>13035276</v>
       </c>
       <c r="I47" s="9">
-        <v>13035276</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14434255</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>16</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1456,7 +1491,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1466,7 +1501,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1476,7 +1511,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>27</v>
       </c>
@@ -1498,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1508,7 +1543,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +1567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>10</v>
       </c>
@@ -1541,22 +1576,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>-413295</v>
+        <v>-506735</v>
       </c>
       <c r="F57" s="11">
-        <v>-506735</v>
+        <v>-752564</v>
       </c>
       <c r="G57" s="11">
-        <v>-752564</v>
+        <v>-540903</v>
       </c>
       <c r="H57" s="11">
-        <v>-540903</v>
+        <v>-674927</v>
       </c>
       <c r="I57" s="11">
-        <v>-674927</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-630949</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>12</v>
       </c>
@@ -1565,22 +1600,22 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>-167133</v>
+        <v>-199248</v>
       </c>
       <c r="F58" s="9">
-        <v>-199248</v>
+        <v>-256335</v>
       </c>
       <c r="G58" s="9">
-        <v>-256335</v>
+        <v>-268569</v>
       </c>
       <c r="H58" s="9">
-        <v>-268569</v>
+        <v>-334632</v>
       </c>
       <c r="I58" s="9">
-        <v>-334632</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-325757</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>14</v>
       </c>
@@ -1612,14 +1647,14 @@
         <v>22</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="9">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>15</v>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
       </c>
       <c r="H60" s="9">
         <v>0</v>
@@ -1628,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -1636,14 +1671,14 @@
         <v>22</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>15</v>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
       </c>
       <c r="H61" s="11">
         <v>0</v>
@@ -1652,29 +1687,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15">
-        <v>-580428</v>
+        <v>-705983</v>
       </c>
       <c r="F62" s="15">
-        <v>-705983</v>
+        <v>-1008899</v>
       </c>
       <c r="G62" s="15">
-        <v>-1008899</v>
+        <v>-809472</v>
       </c>
       <c r="H62" s="15">
-        <v>-809472</v>
+        <v>-1009559</v>
       </c>
       <c r="I62" s="15">
-        <v>-1009559</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-956706</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1684,7 +1719,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1694,7 +1729,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1704,7 +1739,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>28</v>
       </c>
@@ -1726,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1736,7 +1771,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>19</v>
       </c>
@@ -1760,7 +1795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>10</v>
       </c>
@@ -1769,22 +1804,22 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>757754</v>
+        <v>771487</v>
       </c>
       <c r="F69" s="11">
-        <v>771487</v>
+        <v>544901</v>
       </c>
       <c r="G69" s="11">
-        <v>544901</v>
+        <v>669121</v>
       </c>
       <c r="H69" s="11">
-        <v>669121</v>
+        <v>980335</v>
       </c>
       <c r="I69" s="11">
-        <v>980335</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1021328</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>12</v>
       </c>
@@ -1793,22 +1828,22 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>76708</v>
+        <v>93043</v>
       </c>
       <c r="F70" s="9">
-        <v>93043</v>
+        <v>62665</v>
       </c>
       <c r="G70" s="9">
-        <v>62665</v>
+        <v>77956</v>
       </c>
       <c r="H70" s="9">
-        <v>77956</v>
+        <v>91426</v>
       </c>
       <c r="I70" s="9">
-        <v>91426</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117952</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>14</v>
       </c>
@@ -1840,14 +1875,14 @@
         <v>22</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>15</v>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0</v>
       </c>
       <c r="H72" s="9">
         <v>0</v>
@@ -1856,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -1864,14 +1899,14 @@
         <v>22</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="11">
-        <v>0</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>15</v>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
       </c>
       <c r="H73" s="11">
         <v>0</v>
@@ -1880,26 +1915,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>834462</v>
+        <v>864530</v>
       </c>
       <c r="F74" s="15">
-        <v>864530</v>
+        <v>607566</v>
       </c>
       <c r="G74" s="15">
-        <v>607566</v>
+        <v>747077</v>
       </c>
       <c r="H74" s="15">
-        <v>747077</v>
+        <v>1071761</v>
       </c>
       <c r="I74" s="15">
-        <v>1071761</v>
+        <v>1139280</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/chemical/shamla/product/quarterly.xlsx
+++ b/database/industries/chemical/shamla/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\shamla\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ABEA9D-ED81-4529-99DD-5FF13E65668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FEB57B-682D-493A-89DD-688B5E4AF8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -64,10 +79,10 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سولفات پتاسیم</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>کلراید کلسیم</t>
@@ -562,16 +577,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I74"/>
+  <dimension ref="B1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -580,8 +595,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,8 +612,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -604,8 +629,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -614,8 +644,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -626,8 +661,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -638,8 +678,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -648,8 +693,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -670,8 +720,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -680,148 +745,243 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>46950</v>
+      </c>
+      <c r="F10" s="9">
+        <v>44691</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44185</v>
+      </c>
+      <c r="H10" s="9">
+        <v>46723</v>
+      </c>
+      <c r="I10" s="9">
+        <v>46179</v>
+      </c>
+      <c r="J10" s="9">
         <v>47450</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>46826</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>47546</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>47419</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>46523</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>19930</v>
+      </c>
+      <c r="F11" s="11">
+        <v>19867</v>
+      </c>
+      <c r="G11" s="11">
+        <v>21295</v>
+      </c>
+      <c r="H11" s="11">
+        <v>21384</v>
+      </c>
+      <c r="I11" s="11">
+        <v>24130</v>
+      </c>
+      <c r="J11" s="11">
         <v>26674</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>26512</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>25279</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>34125</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>30475</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>66880</v>
+      </c>
+      <c r="F15" s="13">
+        <v>64558</v>
+      </c>
+      <c r="G15" s="13">
+        <v>65480</v>
+      </c>
+      <c r="H15" s="13">
+        <v>68107</v>
+      </c>
+      <c r="I15" s="13">
+        <v>70309</v>
+      </c>
+      <c r="J15" s="13">
         <v>74124</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>73338</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>72825</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>81544</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>76998</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -830,8 +990,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -840,8 +1005,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -850,10 +1020,15 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -872,8 +1047,23 @@
       <c r="I19" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -882,172 +1072,282 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
+        <v>47742</v>
+      </c>
+      <c r="F22" s="11">
+        <v>44262</v>
+      </c>
+      <c r="G22" s="11">
+        <v>43426</v>
+      </c>
+      <c r="H22" s="11">
+        <v>46995</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45234</v>
+      </c>
+      <c r="J22" s="11">
         <v>45594</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="K22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="11">
         <v>41838</v>
       </c>
-      <c r="H22" s="11">
+      <c r="M22" s="11">
         <v>50639</v>
       </c>
-      <c r="I22" s="11">
+      <c r="N22" s="11">
         <v>46298</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
+        <v>20381</v>
+      </c>
+      <c r="F23" s="9">
+        <v>19526</v>
+      </c>
+      <c r="G23" s="9">
+        <v>21667</v>
+      </c>
+      <c r="H23" s="9">
+        <v>21433</v>
+      </c>
+      <c r="I23" s="9">
+        <v>22950</v>
+      </c>
+      <c r="J23" s="9">
         <v>26742</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="K23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="9">
         <v>27208</v>
       </c>
-      <c r="H23" s="9">
+      <c r="M23" s="9">
         <v>32685</v>
       </c>
-      <c r="I23" s="9">
+      <c r="N23" s="9">
         <v>30740</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
+      <c r="F24" s="11">
+        <v>0</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="11">
-        <v>0</v>
+      <c r="H24" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>0</v>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11">
-        <v>0</v>
+      <c r="E26" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>68123</v>
+      </c>
+      <c r="F27" s="15">
+        <v>63788</v>
+      </c>
+      <c r="G27" s="15">
+        <v>65093</v>
+      </c>
+      <c r="H27" s="15">
+        <v>68428</v>
+      </c>
+      <c r="I27" s="15">
+        <v>68184</v>
+      </c>
+      <c r="J27" s="15">
         <v>72336</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
         <v>69046</v>
       </c>
-      <c r="H27" s="15">
+      <c r="M27" s="15">
         <v>83324</v>
       </c>
-      <c r="I27" s="15">
+      <c r="N27" s="15">
         <v>77038</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1056,8 +1356,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1066,8 +1371,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1076,10 +1386,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1098,8 +1413,23 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1108,174 +1438,284 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C34" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>708301</v>
+      </c>
+      <c r="F34" s="11">
+        <v>855551</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1187883</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1202914</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1171049</v>
+      </c>
+      <c r="J34" s="11">
         <v>1278222</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="11">
         <v>1210024</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>1655262</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>1652277</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>126968</v>
+      </c>
+      <c r="F35" s="9">
+        <v>162235</v>
+      </c>
+      <c r="G35" s="9">
+        <v>178503</v>
+      </c>
+      <c r="H35" s="9">
+        <v>199191</v>
+      </c>
+      <c r="I35" s="9">
+        <v>243841</v>
+      </c>
+      <c r="J35" s="9">
         <v>292291</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="9">
         <v>346525</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>426058</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>443709</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>15</v>
+      <c r="F36" s="11">
+        <v>0</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>835269</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1017786</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1366386</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1402105</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1414890</v>
+      </c>
+      <c r="J39" s="15">
         <v>1570513</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
         <v>1556549</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>2081320</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>2095986</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1284,8 +1724,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1294,8 +1739,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1304,10 +1754,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1326,8 +1781,23 @@
       <c r="I43" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1336,152 +1806,247 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>14836014</v>
+      </c>
+      <c r="F46" s="11">
+        <v>19329244</v>
+      </c>
+      <c r="G46" s="11">
+        <v>27585389</v>
+      </c>
+      <c r="H46" s="11">
+        <v>25596638</v>
+      </c>
+      <c r="I46" s="11">
+        <v>25888690</v>
+      </c>
+      <c r="J46" s="11">
         <v>28034873</v>
       </c>
-      <c r="F46" s="11">
+      <c r="K46" s="11">
         <v>28732948</v>
       </c>
-      <c r="G46" s="11">
+      <c r="L46" s="11">
         <v>28921650</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>32687494</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>35687870</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>6229724</v>
+      </c>
+      <c r="F47" s="9">
+        <v>8308665</v>
+      </c>
+      <c r="G47" s="9">
+        <v>8280559</v>
+      </c>
+      <c r="H47" s="9">
+        <v>9293659</v>
+      </c>
+      <c r="I47" s="9">
+        <v>10624880</v>
+      </c>
+      <c r="J47" s="9">
         <v>10930035</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>12833923</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>12736144</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>13035276</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>14434255</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1490,8 +2055,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1500,8 +2070,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1510,10 +2085,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1532,8 +2112,23 @@
       <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1542,85 +2137,135 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C57" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>-236898</v>
+      </c>
+      <c r="F57" s="11">
+        <v>-246467</v>
+      </c>
+      <c r="G57" s="11">
+        <v>-360564</v>
+      </c>
+      <c r="H57" s="11">
+        <v>-397269</v>
+      </c>
+      <c r="I57" s="11">
+        <v>-413295</v>
+      </c>
+      <c r="J57" s="11">
         <v>-506735</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>-752564</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>-540903</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>-674927</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>-630949</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
+        <v>-86445</v>
+      </c>
+      <c r="F58" s="9">
+        <v>-89160</v>
+      </c>
+      <c r="G58" s="9">
+        <v>-136225</v>
+      </c>
+      <c r="H58" s="9">
+        <v>-141351</v>
+      </c>
+      <c r="I58" s="9">
+        <v>-167133</v>
+      </c>
+      <c r="J58" s="9">
         <v>-199248</v>
       </c>
-      <c r="F58" s="9">
+      <c r="K58" s="9">
         <v>-256335</v>
       </c>
-      <c r="G58" s="9">
+      <c r="L58" s="9">
         <v>-268569</v>
       </c>
-      <c r="H58" s="9">
+      <c r="M58" s="9">
         <v>-334632</v>
       </c>
-      <c r="I58" s="9">
+      <c r="N58" s="9">
         <v>-325757</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
@@ -1632,84 +2277,144 @@
       <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="11">
-        <v>0</v>
+      <c r="H59" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I59" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="9">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15">
+        <v>-323343</v>
+      </c>
+      <c r="F62" s="15">
+        <v>-335627</v>
+      </c>
+      <c r="G62" s="15">
+        <v>-496789</v>
+      </c>
+      <c r="H62" s="15">
+        <v>-538620</v>
+      </c>
+      <c r="I62" s="15">
+        <v>-580428</v>
+      </c>
+      <c r="J62" s="15">
         <v>-705983</v>
       </c>
-      <c r="F62" s="15">
+      <c r="K62" s="15">
         <v>-1008899</v>
       </c>
-      <c r="G62" s="15">
+      <c r="L62" s="15">
         <v>-809472</v>
       </c>
-      <c r="H62" s="15">
+      <c r="M62" s="15">
         <v>-1009559</v>
       </c>
-      <c r="I62" s="15">
+      <c r="N62" s="15">
         <v>-956706</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1718,8 +2423,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1728,8 +2438,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1738,10 +2453,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1760,8 +2480,23 @@
       <c r="I66" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1770,85 +2505,135 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C69" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>471403</v>
+      </c>
+      <c r="F69" s="11">
+        <v>609084</v>
+      </c>
+      <c r="G69" s="11">
+        <v>827318</v>
+      </c>
+      <c r="H69" s="11">
+        <v>805645</v>
+      </c>
+      <c r="I69" s="11">
+        <v>757754</v>
+      </c>
+      <c r="J69" s="11">
         <v>771487</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>544901</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>669121</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>980335</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>1021328</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>40523</v>
+      </c>
+      <c r="F70" s="9">
+        <v>73075</v>
+      </c>
+      <c r="G70" s="9">
+        <v>42279</v>
+      </c>
+      <c r="H70" s="9">
+        <v>57840</v>
+      </c>
+      <c r="I70" s="9">
+        <v>76708</v>
+      </c>
+      <c r="J70" s="9">
         <v>93043</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>62665</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>77956</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>91426</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>117952</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -1860,80 +2645,140 @@
       <c r="G71" s="11">
         <v>0</v>
       </c>
-      <c r="H71" s="11">
-        <v>0</v>
+      <c r="H71" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I71" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="11">
+        <v>0</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C72" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="9">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="11">
+        <v>0</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="9">
-        <v>0</v>
-      </c>
-      <c r="H72" s="9">
-        <v>0</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11">
-        <v>0</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="11">
-        <v>0</v>
-      </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
+        <v>511926</v>
+      </c>
+      <c r="F74" s="15">
+        <v>682159</v>
+      </c>
+      <c r="G74" s="15">
+        <v>869597</v>
+      </c>
+      <c r="H74" s="15">
+        <v>863485</v>
+      </c>
+      <c r="I74" s="15">
+        <v>834462</v>
+      </c>
+      <c r="J74" s="15">
         <v>864530</v>
       </c>
-      <c r="F74" s="15">
+      <c r="K74" s="15">
         <v>607566</v>
       </c>
-      <c r="G74" s="15">
+      <c r="L74" s="15">
         <v>747077</v>
       </c>
-      <c r="H74" s="15">
+      <c r="M74" s="15">
         <v>1071761</v>
       </c>
-      <c r="I74" s="15">
+      <c r="N74" s="15">
         <v>1139280</v>
       </c>
     </row>
